--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\OR-tool-learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OR_Programming\flow_shop\Operational-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF2C6C5-453B-4A83-8446-82FD7F88C2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74AE39D-99A1-4919-BACA-5A3777892DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{DA37FF10-303C-4325-B8F8-12CC6EC1ED6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{DA37FF10-303C-4325-B8F8-12CC6EC1ED6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="p" sheetId="2" r:id="rId2"/>
-    <sheet name="lambda" sheetId="3" r:id="rId3"/>
+    <sheet name="omega" sheetId="3" r:id="rId3"/>
     <sheet name="E" sheetId="4" r:id="rId4"/>
     <sheet name="m" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,12 +675,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -702,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,12 +734,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -795,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -847,13 +847,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEFD257-B265-4A50-A4C8-D8345372C156}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -861,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -933,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -981,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1015,13 +1015,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C74FBA-739C-41E1-9085-E08950BE4E73}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1115,9 +1115,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
